--- a/Interviews_Charts/interview3 pages.xlsx
+++ b/Interviews_Charts/interview3 pages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pzban\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pzban\Documents\GitHub\PROJECT-E4\Interviews_Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{B2289F36-F28E-4595-8EEC-1A5C371E0056}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{83D692FC-BA0F-49EF-947D-FE05028BAA7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{B50EE096-885C-4EEB-B2E0-2A90BC7D3F40}"/>
   </bookViews>
@@ -388,117 +388,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,469 +815,465 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="33.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="33.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" thickTop="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="9"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="9"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="6"/>
+      <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickTop="1"/>
     <row r="18" spans="1:6" ht="15" thickBot="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1" thickTop="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15" thickTop="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="23">
         <v>4.5</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="23">
         <v>3</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="23">
         <v>10</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="16" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B29:D29"/>
+  <mergeCells count="19">
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="E19:F20"/>
     <mergeCell ref="C22:D22"/>
@@ -1288,12 +1281,18 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:D20"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
